--- a/sg/447-capability-server/ig/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/sg/447-capability-server/ig/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T14:06:32+00:00</t>
+    <t>2026-01-26T10:02:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
